--- a/Cleaned_Data_Isaac_Adeyeye.xlsx
+++ b/Cleaned_Data_Isaac_Adeyeye.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaac\OneDrive\M4ACE_Projects\2project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F192B37F-ACEF-44E0-A528-E34463BA0B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{890F0957-1FF7-4FFE-A62E-A09271B44A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8088" yWindow="1212" windowWidth="17280" windowHeight="8880"/>
   </bookViews>
@@ -2013,7 +2013,7 @@
   <dimension ref="A1:Z20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+      <selection activeCell="V23" sqref="V23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
